--- a/target/classes/TestCases/Data.xlsx
+++ b/target/classes/TestCases/Data.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
